--- a/feedback_forms/testing_versions/oil_and_gas_operator_feedback_v070_with_errors_02.xlsx
+++ b/feedback_forms/testing_versions/oil_and_gas_operator_feedback_v070_with_errors_02.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://carb-my.sharepoint.com/personal/tony_held_arb_ca_gov/Documents/code/pycharm/feedback_portal/feedback_forms/testing_versions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{597B706A-FF33-4B17-A9CF-CF195352088D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DBB8E64-7B1C-49B3-A7B7-D5408EFA3D5B}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{597B706A-FF33-4B17-A9CF-CF195352088D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B96EDE38-B2DB-46A2-BB91-059598A95D11}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="kjlmzu+Q6SFTogsx4Qi52aIyd+8jmZeb0EwHe9aMejtDjbzj4NdjjdeuWfsACHLWYXh5VX6pk8UjIKzypXD1rg==" workbookSaltValue="GL9SubWR9+G9ealuHbyojg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="2687" yWindow="460" windowWidth="19200" windowHeight="11093" xr2:uid="{AD2102A5-37B4-471F-BCEC-083B2F5B9811}"/>
+    <workbookView xWindow="4547" yWindow="2500" windowWidth="19200" windowHeight="11093" xr2:uid="{AD2102A5-37B4-471F-BCEC-083B2F5B9811}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback Form" sheetId="5" r:id="rId1"/>
@@ -3843,7 +3843,7 @@
       </c>
       <c r="C32" s="34"/>
       <c r="D32" s="48">
-        <v>1006</v>
+        <v>1014</v>
       </c>
       <c r="E32" s="44"/>
       <c r="F32" s="44"/>
@@ -7335,26 +7335,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000E9A34E7C7C736409D4BDE6375CCC276" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0cf521a6d855790dbe6a6d894ff439cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32" xmlns:ns3="e20ceb87-0d79-402a-b4b9-75d78589c76d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a45aa6d812898c4b0f52b4c3685679ce" ns2:_="" ns3:_="">
     <xsd:import namespace="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
@@ -7589,26 +7569,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{368BC477-8FFD-4C56-8224-F3CCFEFBFA36}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
-    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{533C6BB5-3BBA-46E5-A63A-38A55F0F20F9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7625,4 +7606,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{368BC477-8FFD-4C56-8224-F3CCFEFBFA36}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
+    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/feedback_forms/testing_versions/oil_and_gas_operator_feedback_v070_with_errors_02.xlsx
+++ b/feedback_forms/testing_versions/oil_and_gas_operator_feedback_v070_with_errors_02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://carb-my.sharepoint.com/personal/tony_held_arb_ca_gov/Documents/code/pycharm/feedback_portal/feedback_forms/testing_versions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{597B706A-FF33-4B17-A9CF-CF195352088D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B96EDE38-B2DB-46A2-BB91-059598A95D11}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{597B706A-FF33-4B17-A9CF-CF195352088D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B494631-63A7-4AC0-8B32-31E68BAD8E74}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="kjlmzu+Q6SFTogsx4Qi52aIyd+8jmZeb0EwHe9aMejtDjbzj4NdjjdeuWfsACHLWYXh5VX6pk8UjIKzypXD1rg==" workbookSaltValue="GL9SubWR9+G9ealuHbyojg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="4547" yWindow="2500" windowWidth="19200" windowHeight="11093" xr2:uid="{AD2102A5-37B4-471F-BCEC-083B2F5B9811}"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="277">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1382,25 +1382,43 @@
     </r>
   </si>
   <si>
-    <t>{{ component_at_source }}</t>
-  </si>
-  <si>
-    <t>{{ equipment_at_source }}</t>
-  </si>
-  <si>
-    <t>{{ method21_performed }}</t>
-  </si>
-  <si>
-    <t>{{ method21_result }}</t>
-  </si>
-  <si>
-    <t>{{ ogi_performed }}</t>
-  </si>
-  <si>
-    <t>{{ ogi_result }}</t>
-  </si>
-  <si>
-    <t>{{ venting_exclusion }}</t>
+    <t>string 2</t>
+  </si>
+  <si>
+    <t>string 3</t>
+  </si>
+  <si>
+    <t>string 4</t>
+  </si>
+  <si>
+    <t>string 5</t>
+  </si>
+  <si>
+    <t>string q2</t>
+  </si>
+  <si>
+    <t>string q5</t>
+  </si>
+  <si>
+    <t>string q9</t>
+  </si>
+  <si>
+    <t>3/33/2025</t>
+  </si>
+  <si>
+    <t>string q14</t>
+  </si>
+  <si>
+    <t>"tacos"</t>
+  </si>
+  <si>
+    <t>nachos'</t>
+  </si>
+  <si>
+    <t>string q22</t>
+  </si>
+  <si>
+    <t>"""""Wild Things'''''''</t>
   </si>
 </sst>
 </file>
@@ -1410,19 +1428,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1685,10 +1697,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1698,8 +1710,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1710,8 +1722,8 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1729,54 +1741,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1784,61 +1790,63 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1863,6 +1871,36 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3051,8 +3089,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:AG76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.5"/>
@@ -3234,7 +3272,7 @@
       </c>
     </row>
     <row r="8" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="63" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="31"/>
@@ -3838,7 +3876,7 @@
       </c>
     </row>
     <row r="32" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="61" t="s">
         <v>246</v>
       </c>
       <c r="C32" s="34"/>
@@ -3849,47 +3887,57 @@
       <c r="F32" s="44"/>
     </row>
     <row r="33" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B33" s="62" t="s">
+      <c r="B33" s="61" t="s">
         <v>247</v>
       </c>
       <c r="C33" s="34"/>
-      <c r="D33" s="48"/>
+      <c r="D33" s="65" t="s">
+        <v>264</v>
+      </c>
       <c r="E33" s="44"/>
       <c r="F33" s="44"/>
     </row>
     <row r="34" spans="2:33" s="33" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B34" s="62" t="s">
+      <c r="B34" s="61" t="s">
         <v>248</v>
       </c>
       <c r="C34" s="34"/>
-      <c r="D34" s="53"/>
+      <c r="D34" s="66" t="s">
+        <v>265</v>
+      </c>
       <c r="E34" s="44"/>
       <c r="F34" s="44"/>
     </row>
     <row r="35" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B35" s="62" t="s">
+      <c r="B35" s="61" t="s">
         <v>249</v>
       </c>
       <c r="C35" s="34"/>
-      <c r="D35" s="48"/>
+      <c r="D35" s="65" t="s">
+        <v>266</v>
+      </c>
       <c r="E35" s="44"/>
       <c r="F35" s="44"/>
     </row>
     <row r="36" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B36" s="62" t="s">
+      <c r="B36" s="61" t="s">
         <v>250</v>
       </c>
       <c r="C36" s="34"/>
-      <c r="D36" s="48"/>
+      <c r="D36" s="65" t="s">
+        <v>267</v>
+      </c>
       <c r="E36" s="44"/>
       <c r="F36" s="44"/>
     </row>
     <row r="37" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B37" s="60" t="s">
+      <c r="B37" s="59" t="s">
         <v>251</v>
       </c>
       <c r="C37" s="34"/>
-      <c r="D37" s="53"/>
+      <c r="D37" s="53">
+        <v>45713</v>
+      </c>
       <c r="E37" s="44"/>
       <c r="F37" s="44"/>
     </row>
@@ -4000,47 +4048,57 @@
       </c>
     </row>
     <row r="41" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="B41" s="61" t="s">
+      <c r="B41" s="60" t="s">
         <v>252</v>
       </c>
       <c r="C41" s="44"/>
-      <c r="D41" s="54"/>
+      <c r="D41" s="54">
+        <v>123.56</v>
+      </c>
       <c r="E41" s="55"/>
       <c r="F41" s="44"/>
     </row>
     <row r="42" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="B42" s="63" t="s">
+      <c r="B42" s="62" t="s">
         <v>253</v>
       </c>
       <c r="C42" s="55"/>
-      <c r="D42" s="54"/>
+      <c r="D42" s="67" t="s">
+        <v>268</v>
+      </c>
       <c r="E42" s="55"/>
       <c r="F42" s="44"/>
     </row>
     <row r="43" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="B43" s="61" t="s">
+      <c r="B43" s="60" t="s">
         <v>254</v>
       </c>
       <c r="C43" s="44"/>
-      <c r="D43" s="54"/>
+      <c r="D43" s="54">
+        <v>15</v>
+      </c>
       <c r="E43" s="55"/>
       <c r="F43" s="44"/>
     </row>
     <row r="44" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="B44" s="61" t="s">
+      <c r="B44" s="60" t="s">
         <v>255</v>
       </c>
       <c r="C44" s="44"/>
-      <c r="D44" s="54"/>
+      <c r="D44" s="68">
+        <v>43876</v>
+      </c>
       <c r="E44" s="55"/>
       <c r="F44" s="44"/>
     </row>
     <row r="45" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="B45" s="61" t="s">
+      <c r="B45" s="60" t="s">
         <v>256</v>
       </c>
       <c r="C45" s="44"/>
-      <c r="D45" s="54"/>
+      <c r="D45" s="67" t="s">
+        <v>269</v>
+      </c>
       <c r="E45" s="55"/>
       <c r="F45" s="44"/>
     </row>
@@ -4151,12 +4209,12 @@
       </c>
     </row>
     <row r="49" spans="2:33" s="10" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="61" t="s">
+      <c r="B49" s="60" t="s">
         <v>26</v>
       </c>
       <c r="C49" s="44"/>
       <c r="D49" s="41" t="s">
-        <v>270</v>
+        <v>97</v>
       </c>
       <c r="E49" s="55"/>
       <c r="F49" s="44"/>
@@ -4166,7 +4224,9 @@
         <v>28</v>
       </c>
       <c r="C50" s="55"/>
-      <c r="D50" s="56"/>
+      <c r="D50" s="56">
+        <v>15</v>
+      </c>
       <c r="E50" s="55"/>
       <c r="F50" s="44"/>
     </row>
@@ -4277,73 +4337,79 @@
       </c>
     </row>
     <row r="54" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B54" s="61" t="s">
+      <c r="B54" s="60" t="s">
         <v>211</v>
       </c>
       <c r="C54" s="44"/>
       <c r="D54" s="41" t="s">
-        <v>268</v>
+        <v>27</v>
       </c>
       <c r="E54" s="38"/>
       <c r="F54" s="44"/>
     </row>
     <row r="55" spans="2:33" s="15" customFormat="1" ht="31" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B55" s="61" t="s">
+      <c r="B55" s="60" t="s">
         <v>213</v>
       </c>
       <c r="C55" s="44"/>
-      <c r="D55" s="57"/>
+      <c r="D55" s="69" t="s">
+        <v>270</v>
+      </c>
       <c r="E55" s="38"/>
       <c r="F55" s="44"/>
     </row>
     <row r="56" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B56" s="61" t="s">
+      <c r="B56" s="60" t="s">
         <v>244</v>
       </c>
       <c r="C56" s="44"/>
       <c r="D56" s="41" t="s">
-        <v>269</v>
+        <v>98</v>
       </c>
       <c r="E56" s="38"/>
       <c r="F56" s="44"/>
     </row>
     <row r="57" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B57" s="61" t="s">
+      <c r="B57" s="60" t="s">
         <v>212</v>
       </c>
       <c r="C57" s="44"/>
       <c r="D57" s="41" t="s">
-        <v>266</v>
+        <v>97</v>
       </c>
       <c r="E57" s="38"/>
       <c r="F57" s="44"/>
     </row>
     <row r="58" spans="2:33" s="15" customFormat="1" ht="31" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B58" s="61" t="s">
+      <c r="B58" s="60" t="s">
         <v>214</v>
       </c>
       <c r="C58" s="44"/>
-      <c r="D58" s="57"/>
+      <c r="D58" s="69" t="s">
+        <v>271</v>
+      </c>
       <c r="E58" s="38"/>
       <c r="F58" s="44"/>
     </row>
     <row r="59" spans="2:33" s="15" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B59" s="61" t="s">
+      <c r="B59" s="60" t="s">
         <v>243</v>
       </c>
       <c r="C59" s="44"/>
       <c r="D59" s="41" t="s">
-        <v>267</v>
+        <v>203</v>
       </c>
       <c r="E59" s="38"/>
       <c r="F59" s="44"/>
     </row>
     <row r="60" spans="2:33" s="15" customFormat="1" ht="30.7" thickTop="1" x14ac:dyDescent="0.5">
-      <c r="B60" s="65" t="s">
+      <c r="B60" s="64" t="s">
         <v>263</v>
       </c>
       <c r="C60" s="44"/>
-      <c r="D60" s="58"/>
+      <c r="D60" s="70" t="s">
+        <v>272</v>
+      </c>
       <c r="E60" s="38"/>
       <c r="F60" s="44"/>
     </row>
@@ -4352,16 +4418,20 @@
         <v>216</v>
       </c>
       <c r="C61" s="44"/>
-      <c r="D61" s="58"/>
+      <c r="D61" s="71">
+        <v>43832</v>
+      </c>
       <c r="E61" s="44"/>
       <c r="F61" s="44"/>
     </row>
     <row r="62" spans="2:33" s="15" customFormat="1" ht="45.35" x14ac:dyDescent="0.5">
-      <c r="B62" s="61" t="s">
+      <c r="B62" s="60" t="s">
         <v>257</v>
       </c>
       <c r="C62" s="44"/>
-      <c r="D62" s="58"/>
+      <c r="D62" s="70" t="s">
+        <v>273</v>
+      </c>
       <c r="E62" s="44"/>
       <c r="F62" s="44"/>
     </row>
@@ -4477,17 +4547,19 @@
       </c>
       <c r="C66" s="37"/>
       <c r="D66" s="41" t="s">
-        <v>265</v>
+        <v>103</v>
       </c>
       <c r="E66" s="37"/>
       <c r="F66" s="44"/>
     </row>
     <row r="67" spans="2:33" s="15" customFormat="1" ht="31" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B67" s="61" t="s">
+      <c r="B67" s="60" t="s">
         <v>218</v>
       </c>
       <c r="C67" s="39"/>
-      <c r="D67" s="58"/>
+      <c r="D67" s="72" t="s">
+        <v>274</v>
+      </c>
       <c r="E67" s="40"/>
       <c r="F67" s="44"/>
     </row>
@@ -4497,35 +4569,41 @@
       </c>
       <c r="C68" s="37"/>
       <c r="D68" s="41" t="s">
-        <v>264</v>
+        <v>118</v>
       </c>
       <c r="E68" s="44"/>
       <c r="F68" s="44"/>
     </row>
     <row r="69" spans="2:33" s="15" customFormat="1" ht="30.7" thickTop="1" x14ac:dyDescent="0.5">
-      <c r="B69" s="61" t="s">
+      <c r="B69" s="60" t="s">
         <v>221</v>
       </c>
       <c r="C69" s="39"/>
-      <c r="D69" s="58"/>
+      <c r="D69" s="58">
+        <v>2.5</v>
+      </c>
       <c r="E69" s="44"/>
       <c r="F69" s="44"/>
     </row>
     <row r="70" spans="2:33" s="15" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="B70" s="61" t="s">
+      <c r="B70" s="60" t="s">
         <v>258</v>
       </c>
       <c r="C70" s="44"/>
-      <c r="D70" s="57"/>
+      <c r="D70" s="57">
+        <v>15.8</v>
+      </c>
       <c r="E70" s="44"/>
       <c r="F70" s="44"/>
     </row>
     <row r="71" spans="2:33" s="15" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="B71" s="61" t="s">
+      <c r="B71" s="60" t="s">
         <v>259</v>
       </c>
       <c r="C71" s="44"/>
-      <c r="D71" s="56"/>
+      <c r="D71" s="70" t="s">
+        <v>275</v>
+      </c>
       <c r="E71" s="44"/>
       <c r="F71" s="44"/>
     </row>
@@ -4534,7 +4612,9 @@
         <v>260</v>
       </c>
       <c r="C72" s="37"/>
-      <c r="D72" s="58"/>
+      <c r="D72" s="71">
+        <v>38415</v>
+      </c>
       <c r="E72" s="44"/>
       <c r="F72" s="44"/>
     </row>
@@ -4582,7 +4662,9 @@
         <v>262</v>
       </c>
       <c r="C76" s="37"/>
-      <c r="D76" s="59"/>
+      <c r="D76" s="70" t="s">
+        <v>276</v>
+      </c>
       <c r="F76" s="44"/>
     </row>
   </sheetData>
@@ -4595,7 +4677,7 @@
   <drawing r:id="rId4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3B9E63D1-6ADB-4B23-9D34-4B60AC2FE861}">
           <x14:formula1>
             <xm:f>_carb_only!$B$12:$B$14</xm:f>
@@ -7335,6 +7417,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000E9A34E7C7C736409D4BDE6375CCC276" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0cf521a6d855790dbe6a6d894ff439cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32" xmlns:ns3="e20ceb87-0d79-402a-b4b9-75d78589c76d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a45aa6d812898c4b0f52b4c3685679ce" ns2:_="" ns3:_="">
     <xsd:import namespace="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
@@ -7569,27 +7671,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{368BC477-8FFD-4C56-8224-F3CCFEFBFA36}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
+    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{533C6BB5-3BBA-46E5-A63A-38A55F0F20F9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7606,23 +7707,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{368BC477-8FFD-4C56-8224-F3CCFEFBFA36}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
-    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>